--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -9,14 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-60" yWindow="960" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
-    <sheet name="nginx location" sheetId="3" r:id="rId2"/>
-    <sheet name="nginx server_name" sheetId="5" r:id="rId3"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId4"/>
+    <sheet name="location应用整理" sheetId="6" r:id="rId2"/>
+    <sheet name="nginx location" sheetId="3" r:id="rId3"/>
+    <sheet name="nginx server_name" sheetId="5" r:id="rId4"/>
+    <sheet name="工作表4" sheetId="4" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">工作表1!$B$1:$B$25</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -26,8 +31,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+10-25之后无数据</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="383">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -60,31 +99,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <rPh sb="0" eb="1">
-      <t>bei'zh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>whaley</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视猫主程序</t>
-    <rPh sb="0" eb="1">
-      <t>dian'shi'm</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cheng'xu</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,20 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虎鲸主程序</t>
-    <rPh sb="0" eb="1">
-      <t>hu'jing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VR主程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnk8dc5mlsr</t>
-  </si>
-  <si>
     <t>cat ./*.conf|grep location|grep -v "#"|grep -v "50x.html"|grep -v "favicon"|tr -d " "|tr -d "\t"|sort|uniq</t>
   </si>
   <si>
@@ -604,9 +609,6 @@
     <t>/upgrade/Service/component</t>
   </si>
   <si>
-    <t>/user/</t>
-  </si>
-  <si>
     <t>/user</t>
   </si>
   <si>
@@ -678,85 +680,2043 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>whaleyorca</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>whaleyvr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>log.moretv.com.cn； log.tvmore.com.cn； log2.tvmore.com.cn； log3.tvmore.com.cn； ;</t>
+  </si>
+  <si>
+    <t>log.aginomoto.comlog.whaley.com.cn； ;</t>
+  </si>
+  <si>
+    <t>api.moretv.com.cn； api1.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>medusalog.tvmore.com.cn； medusalog2.tvmore.com.cn； medusalog3.tvmore.com.cn； testlog.tvmore.com.cn； ;</t>
+  </si>
+  <si>
+    <t>bus.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>stun.p2p.tvmore.com.cn； stun.eagleapp.cn;</t>
+  </si>
+  <si>
+    <t>logupload.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>localhost.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>mobilelog.moretv.com.cn； mobilelog.tvmore.com.cn； ;</t>
+  </si>
+  <si>
+    <t>ms.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>rss.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>openapi.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>parse.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>passport.moretv.com.cn； passport1.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>search.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>sports.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>u.moretv.com.cn； u1.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>vod.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>voduc.moretv.com.cn； ;</t>
+  </si>
+  <si>
+    <t>/accountlog</t>
+  </si>
+  <si>
+    <t>/contentqrcode</t>
+  </si>
+  <si>
+    <t>/danmulog</t>
+  </si>
+  <si>
+    <t>/metislog</t>
+  </si>
+  <si>
+    <t>/promotionqrcode</t>
+  </si>
+  <si>
+    <t>/test/metislog</t>
+  </si>
+  <si>
+    <t>/user/Service/accountLogin</t>
+  </si>
+  <si>
+    <t>/weixinlog</t>
+  </si>
+  <si>
+    <t>applog.aginomoto.com</t>
+  </si>
+  <si>
+    <t>/applog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sysapplog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appstorelog</t>
+  </si>
+  <si>
+    <t>/crashlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tvlog.aginomoto.com 
+tvlog.galaxytv.cn;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/upgradelog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videolog.aginomoto.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/playqoslog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get/post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syslog.aginomoto.com;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vrapplog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logupload.aginomoto.com  
+logupload2.aginomoto.com 
+logupload3.aginomoto.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medusalog.tvmore.com.cn 
+medusalog2.tvmore.com.cn 
+medusalog3.tvmore.com.cn 
+testlog.tvmore.com.cn;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/set/memc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appstorelog.aginomoto.com 
+appstorelog.galaxytv.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <rPh sb="0" eb="1">
+      <t>yu'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adlog/</t>
+  </si>
+  <si>
+    <t>/launcher/</t>
+  </si>
+  <si>
+    <t>/operationlog/</t>
+  </si>
+  <si>
+    <t>/paylog/</t>
+  </si>
+  <si>
+    <t>/romlog/</t>
+  </si>
+  <si>
+    <t>/activitylog/</t>
+  </si>
+  <si>
+    <t>/upgradelog/</t>
+  </si>
+  <si>
+    <t>/userinforlog/</t>
+  </si>
+  <si>
+    <t>get/post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun.p2p.tvmore.com.cn 
+stun.eagleapp.cn;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/operationlog/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pagelog/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/videolog/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Service/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/upload/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Service/upload2</t>
+  </si>
+  <si>
+    <t>/crashlog</t>
+  </si>
+  <si>
+    <t>公司代码</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medusa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/medusalog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫首页活动日志</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'y</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo'd</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫3.0全部日志</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>quan'b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机App（猫闲）日志</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机助手App日志</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji'zhu'shou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilehelper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫2.0少儿版日志</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shao'er</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫1.0日志</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫2.0日志</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微鲸电视崩溃日志</t>
+    <rPh sb="0" eb="1">
+      <t>wei'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>beng'kui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微鲸电视应用日志</t>
+    <rPh sb="0" eb="1">
+      <t>wei'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ying'y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>r'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微鲸电视应用商店日志</t>
+    <rPh sb="0" eb="1">
+      <t>wei'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ying'y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>r'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫账号登录日志</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang'h</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微鲸电视账号日志</t>
+    <rPh sb="0" eb="1">
+      <t>wei'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang'h</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微鲸电视首页活动日志，目前走电视猫接口</t>
+    <rPh sb="0" eb="1">
+      <t>wei'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou'y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo'd</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mu'q</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微鲸电视首页日志</t>
+    <rPh sb="0" eb="1">
+      <t>wei'j'dian'sh</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou'ye</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微鲸电视系统设置操作日志</t>
+    <rPh sb="0" eb="1">
+      <t>wei'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi't</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微鲸电视支付日志</t>
+    <rPh sb="0" eb="1">
+      <t>wei'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getLog2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tvlog/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whaleyvr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medusa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫竞品价格</t>
+    <rPh sb="0" eb="1">
+      <t>pa'chong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whaleytv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crawler</t>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫竞品内容情报</t>
+  </si>
+  <si>
+    <t>爬虫竞品内容情报</t>
+    <rPh sb="0" eb="1">
+      <t>pa'chong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei'r</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫crash日志收集</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shou'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫3.0版本主程序</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban'b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫2.0版本主程序</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban'b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫1.0版本主程序</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban'b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR主程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫少儿版</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shao'er'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫收集助手</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫竞品价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视猫用户在线时长日志（来自长连接系统，IP地址）</t>
+    <rPh sb="0" eb="1">
+      <t>diam'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yong'h</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zai'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'chang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lai'zi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chang'lian'j</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xi't</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用说明</t>
+    <rPh sb="0" eb="1">
+      <t>ying'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shuo'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log.moretv.com.cn 
+log.tvmore.com.cn 
+log2.tvmore.com.cn 
+log3.tvmore.com.cn;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/moretv/userdurationlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vrlog.aginomoto.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applog.aginomoto.com
+crawlerlog.aginomoto.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/uploadlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/uploadplaylog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mtvkidslog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mobilehelperlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mobilelog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crashlog.aginomoto.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applog.aginomoto.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">appstorelog.aginomoto.com </t>
+  </si>
+  <si>
+    <t>appstorelog.galaxytv.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tvlog.aginomoto.com </t>
+  </si>
+  <si>
+    <t>tvlog.galaxytv.cn</t>
+  </si>
+  <si>
+    <t>videolog.aginomoto.com</t>
+  </si>
+  <si>
+    <t>目前接入点</t>
+    <rPh sb="0" eb="1">
+      <t>mu'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crawler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/price</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+暂时未定</t>
+    </r>
+    <rPh sb="43" eb="44">
+      <t>zan'shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>wei'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划接入点</t>
+    <rPh sb="0" eb="1">
+      <t>gui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'ru'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnken8tuboa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+log.moretv.com.cn log.tvmore.com.cn 
+log2.tvmore.com.cn log3.tvmore.com.cn
+16机器外网IP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/activity /medusalog /moretv/userdurationlog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn 
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/uploadlog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/mtvkidslog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkfipphckl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilehelper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjtihcg268dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/uploadplaylog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/mobilehelperlog  /mobilelog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+applog.aginomoto.com appstorelog.aginomoto.com 
+appstorelog.galaxytv.cn crashlog.aginomoto.com
+tvlog.aginomoto.com tvlog.galaxytv.cn
+videolog.aginomoto.com 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/crashlog /applog /sysapplog /appstorelog
+/accountlog /activitylog/ /launcher/
+/operationlog/ /paylog/ /romlog/
+/tvlog/ /upgradelog/ /userinforlog/
+/adlog/ /operationlog/ /pagelog/
+/videolog/ /playqoslog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>boikgpokn78sb95kjhfrendo8dc5mlsr</t>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kj7bimeik8dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>boikgpokn78sb95kbqei6cc98dc5mlsr</t>
-  </si>
-  <si>
-    <t>log.moretv.com.cn； log.tvmore.com.cn； log2.tvmore.com.cn； log3.tvmore.com.cn； ;</t>
-  </si>
-  <si>
-    <t>log.aginomoto.comlog.whaley.com.cn； ;</t>
-  </si>
-  <si>
-    <t>api.moretv.com.cn； api1.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>medusalog.tvmore.com.cn； medusalog2.tvmore.com.cn； medusalog3.tvmore.com.cn； testlog.tvmore.com.cn； ;</t>
-  </si>
-  <si>
-    <t>bus.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>stun.p2p.tvmore.com.cn； stun.eagleapp.cn;</t>
-  </si>
-  <si>
-    <t>logupload.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>localhost.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>mobilelog.moretv.com.cn； mobilelog.tvmore.com.cn； ;</t>
-  </si>
-  <si>
-    <t>ms.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>rss.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>openapi.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>parse.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>passport.moretv.com.cn； passport1.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>search.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>sports.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>u.moretv.com.cn； u1.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>vod.moretv.com.cn； ;</t>
-  </si>
-  <si>
-    <t>voduc.moretv.com.cn； ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vrlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/vrapplog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kkls3bhmtjqosocdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kkls3bhmtichjhhm8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">log.moretv.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">log.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">log2.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>log3.tvmore.com.cn</t>
+  </si>
+  <si>
+    <t>vrlog.aginomoto.com</t>
+  </si>
+  <si>
+    <t>crawlerlog.aginomoto.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logupload.aginomoto.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logupload2.aginomoto.com </t>
+  </si>
+  <si>
+    <t>logupload3.aginomoto.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog2.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog3.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>testlog.tvmore.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stun.p2p.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>stun.eagleapp.cn</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkfipphckl</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kkls3bhmtichjhhm8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kkls3bhmtjqosocdj</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnken8tuboa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/log/boikgpokn78sb95kjtihcg268dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.aginomoto.com *.galaxytv.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/log/boikgpokn78sb95kjhfrendo8dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vrlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kbqei6cc98dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -772,16 +2732,104 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -789,18 +2837,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1076,117 +3221,1326 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="97" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="186" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F7" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="E8" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="111" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="41.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
+        <v>21</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="25">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="25"/>
+      <c r="B18" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A20" s="25"/>
+      <c r="B20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="25"/>
+      <c r="B21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="25"/>
+      <c r="B22" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="25"/>
+      <c r="B23" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="25"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="25"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="25"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="25"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="25"/>
+      <c r="B34" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="25"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="25"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="25"/>
+      <c r="B38" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="25">
+        <v>16</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="25"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="25"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="25">
+        <v>17</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="25"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="25"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="25"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="25"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="25"/>
+      <c r="B47" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="25"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="25"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="25"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="25"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="25"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="25"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A54" s="25"/>
+      <c r="B54" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A17:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B18:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1210,902 +4564,902 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
         <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2117,199 +5471,199 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="83.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="94.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="83.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="94.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B1">
         <v>13</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>14</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
         <v>191</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>199</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C9" t="s">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
         <v>201</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
         <v>199</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
         <v>203</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
         <v>205</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
         <v>206</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
         <v>207</v>
-      </c>
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2318,33 +5672,289 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A3:B11"/>
+  <dimension ref="A3:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G4" sqref="G4:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="82.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D15:D24">
+    <sortCondition ref="D15:D24"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>373</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>373</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="A11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B1:B25">
+    <sortCondition ref="B1:B25"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="960" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
@@ -1693,18 +1693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boikgpokn78sb95ktmsc1bnken8tuboa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnkklf477ap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1884,10 +1872,6 @@
   </si>
   <si>
     <t>mobilehelper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kjtihcg268dc5mlsr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2111,14 +2095,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boikgpokn78sb95kjhfrendo8dc5mlsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kbqei6cc98dc5mlsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2259,7 +2235,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>location:</t>
+      <t xml:space="preserve">location: </t>
     </r>
     <r>
       <rPr>
@@ -2271,7 +2247,107 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkklf477ap</t>
+/log/boikgpokn78sb95ktmsc1bnkfipphckl</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kkls3bhmtichjhhm8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kkls3bhmtjqosocdj</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2309,7 +2385,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">location: </t>
+      <t>location:</t>
     </r>
     <r>
       <rPr>
@@ -2321,107 +2397,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkfipphckl</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-crawlerlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95kkls3bhmtichjhhm8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-crawlerlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95kkls3bhmtjqosocdj</t>
+/log/boikgpokn78sb95ktmsc1bnken8tuboa</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2471,7 +2447,193 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnken8tuboa</t>
+/log/boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/log/boikgpokn78sb95kjtihcg268dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.aginomoto.com *.galaxytv.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/log/boikgpokn78sb95kjhfrendo8dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vrlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kbqei6cc98dc5mlsr</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2521,194 +2683,31 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/log/boikgpokn78sb95kjtihcg268dc5mlsr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.aginomoto.com *.galaxytv.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/log/boikgpokn78sb95kjhfrendo8dc5mlsr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-vrlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95kbqei6cc98dc5mlsr</t>
-    </r>
+/log/boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kbqei6cc98dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendo8dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjtihcg268dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnken8tuboa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3223,8 +3222,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3260,9 +3259,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="94" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -3277,15 +3276,15 @@
         <v>308</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -3300,15 +3299,15 @@
         <v>309</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -3323,15 +3322,15 @@
         <v>310</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -3346,21 +3345,21 @@
         <v>313</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>314</v>
@@ -3369,15 +3368,15 @@
         <v>315</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="186" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="184" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
@@ -3392,15 +3391,15 @@
         <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
@@ -3415,15 +3414,15 @@
         <v>311</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>4</v>
@@ -3441,12 +3440,12 @@
         <v>338</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>4</v>
@@ -3464,7 +3463,7 @@
         <v>339</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -5761,7 +5760,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>216</v>
@@ -5769,7 +5768,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>330</v>
@@ -5777,7 +5776,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>331</v>
@@ -5785,7 +5784,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>328</v>
@@ -5793,95 +5792,95 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -5889,23 +5888,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -5913,15 +5912,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>332</v>
@@ -5929,7 +5928,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>333</v>
@@ -5937,7 +5936,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>334</v>
@@ -5945,10 +5944,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -1706,6 +1706,840 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn 
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/uploadlog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/mtvkidslog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkfipphckl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilehelper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/uploadplaylog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/mobilehelperlog  /mobilelog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vrlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/vrapplog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kkls3bhmtjqosocdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kkls3bhmtichjhhm8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">log.moretv.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">log.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">log2.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>log3.tvmore.com.cn</t>
+  </si>
+  <si>
+    <t>vrlog.aginomoto.com</t>
+  </si>
+  <si>
+    <t>crawlerlog.aginomoto.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logupload.aginomoto.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logupload2.aginomoto.com </t>
+  </si>
+  <si>
+    <t>logupload3.aginomoto.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog2.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog3.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>testlog.tvmore.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stun.p2p.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>stun.eagleapp.cn</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkfipphckl</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kkls3bhmtichjhhm8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kkls3bhmtjqosocdj</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnken8tuboa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/log/boikgpokn78sb95kjtihcg268dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vrlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kbqei6cc98dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kbqei6cc98dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendo8dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjtihcg268dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnken8tuboa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1741,286 +2575,6 @@
       </rPr>
       <t xml:space="preserve">
 /activity /medusalog /moretv/userdurationlog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn 
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/uploadlog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/mtvkidslog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnkfipphckl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobilehelper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/uploadplaylog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/mobilehelperlog  /mobilelog</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2104,437 +2658,6 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-vrlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/vrapplog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kkls3bhmtjqosocdj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kkls3bhmtichjhhm8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">log.moretv.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">log.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">log2.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t>log3.tvmore.com.cn</t>
-  </si>
-  <si>
-    <t>vrlog.aginomoto.com</t>
-  </si>
-  <si>
-    <t>crawlerlog.aginomoto.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logupload.aginomoto.com  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">logupload2.aginomoto.com </t>
-  </si>
-  <si>
-    <t>logupload3.aginomoto.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medusalog.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">medusalog2.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">medusalog3.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t>testlog.tvmore.com.cn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stun.p2p.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t>stun.eagleapp.cn</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkfipphckl</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-crawlerlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95kkls3bhmtichjhhm8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-crawlerlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95kkls3bhmtjqosocdj</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnken8tuboa</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/log/boikgpokn78sb95kjtihcg268dc5mlsr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
       <t>domain：</t>
     </r>
     <r>
@@ -2585,129 +2708,6 @@
       </rPr>
       <t>/log/boikgpokn78sb95kjhfrendo8dc5mlsr</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-vrlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95kbqei6cc98dc5mlsr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkklf477ap</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnkklf477ap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kbqei6cc98dc5mlsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kjhfrendo8dc5mlsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kjtihcg268dc5mlsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnken8tuboa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3223,7 +3223,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3259,9 +3259,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="94" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -3276,15 +3276,15 @@
         <v>308</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -3299,15 +3299,15 @@
         <v>309</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -3322,15 +3322,15 @@
         <v>310</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -3345,21 +3345,21 @@
         <v>313</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>314</v>
@@ -3368,15 +3368,15 @@
         <v>315</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="184" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="186" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
@@ -3391,15 +3391,15 @@
         <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
@@ -3414,15 +3414,15 @@
         <v>311</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>4</v>
@@ -3440,12 +3440,12 @@
         <v>338</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>4</v>
@@ -3463,7 +3463,7 @@
         <v>339</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -5760,7 +5760,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>216</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>330</v>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>331</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>328</v>
@@ -5792,95 +5792,95 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -5888,23 +5888,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -5912,15 +5912,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>332</v>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>333</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>334</v>
@@ -5944,10 +5944,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
     <sheet name="location应用整理" sheetId="6" r:id="rId2"/>
     <sheet name="nginx location" sheetId="3" r:id="rId3"/>
     <sheet name="nginx server_name" sheetId="5" r:id="rId4"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId5"/>
+    <sheet name="并网测试" sheetId="4" r:id="rId5"/>
     <sheet name="工作表1" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="386">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -117,25 +117,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cat ./*.conf|grep location|grep -v "#"|grep -v "50x.html"|grep -v "favicon"|tr -d " "|tr -d "\t"|sort|uniq</t>
-  </si>
-  <si>
     <t>15(tv)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17(crash)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <rPh sb="0" eb="1">
-      <t>guang'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat *.conf|grep server_name|tr -d "\t"|tr -d " "|grep -v "#"|sort|uniq</t>
   </si>
   <si>
     <t>localhost;</t>
@@ -1538,9 +1525,6 @@
     <t>crashlog.aginomoto.com</t>
   </si>
   <si>
-    <t xml:space="preserve">applog.aginomoto.com </t>
-  </si>
-  <si>
     <t xml:space="preserve">appstorelog.aginomoto.com </t>
   </si>
   <si>
@@ -1764,6 +1748,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>boikgpokn78sb95ktmsc1bnkfipphckl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilehelper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kkls3bhmtjqosocdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kkls3bhmtichjhhm8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">log.moretv.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">log.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">log2.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>log3.tvmore.com.cn</t>
+  </si>
+  <si>
+    <t>vrlog.aginomoto.com</t>
+  </si>
+  <si>
+    <t>crawlerlog.aginomoto.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logupload.aginomoto.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logupload2.aginomoto.com </t>
+  </si>
+  <si>
+    <t>logupload3.aginomoto.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog2.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog3.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>testlog.tvmore.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stun.p2p.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>stun.eagleapp.cn</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1785,8 +1834,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
+*.moretv.com.cn *.tvmore.com.cn
 </t>
     </r>
     <r>
@@ -1810,16 +1858,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-/mtvkidslog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnkfipphckl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobilehelper</t>
+/log/boikgpokn78sb95ktmsc1bnkfipphckl</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1832,6 +1872,206 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kkls3bhmtichjhhm8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kkls3bhmtjqosocdj</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnken8tuboa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>domain：</t>
     </r>
     <r>
@@ -1856,8 +2096,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
+      <t xml:space="preserve">*.moretv.com.cn *.tvmore.com.cn
 </t>
     </r>
     <r>
@@ -1893,82 +2132,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/uploadplaylog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/mobilehelperlog  /mobilelog</t>
+      <t>/log/boikgpokn78sb95kjtihcg268dc5mlsr</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2018,492 +2182,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-/vrapplog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kkls3bhmtjqosocdj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kkls3bhmtichjhhm8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">log.moretv.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">log.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">log2.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t>log3.tvmore.com.cn</t>
-  </si>
-  <si>
-    <t>vrlog.aginomoto.com</t>
-  </si>
-  <si>
-    <t>crawlerlog.aginomoto.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logupload.aginomoto.com  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">logupload2.aginomoto.com </t>
-  </si>
-  <si>
-    <t>logupload3.aginomoto.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medusalog.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">medusalog2.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">medusalog3.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t>testlog.tvmore.com.cn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stun.p2p.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t>stun.eagleapp.cn</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkfipphckl</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-crawlerlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95kkls3bhmtichjhhm8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-crawlerlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95kkls3bhmtjqosocdj</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnken8tuboa</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/log/boikgpokn78sb95kjtihcg268dc5mlsr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-vrlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 /log/boikgpokn78sb95kbqei6cc98dc5mlsr</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkklf477ap</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boikgpokn78sb95ktmsc1bnkklf477ap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2524,58 +2207,6 @@
   </si>
   <si>
     <t>boikgpokn78sb95ktmsc1bnken8tuboa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-log.moretv.com.cn log.tvmore.com.cn 
-log2.tvmore.com.cn log3.tvmore.com.cn
-16机器外网IP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/activity /medusalog /moretv/userdurationlog</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2708,6 +2339,386 @@
       </rPr>
       <t>/log/boikgpokn78sb95kjhfrendo8dc5mlsr</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+log.moretv.com.cn log.tvmore.com.cn 
+log2.tvmore.com.cn log3.tvmore.com.cn
+16机器外网IP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/activity /medusalog /moretv/userdurationlog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/uploadplaylog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/mtvkidslog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/mobilehelperlog  /mobilelog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vrlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/vrapplog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wha1ey#666@e3!</t>
+  </si>
+  <si>
+    <t>whaley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whaleyTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/applog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/log/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2861,7 +2872,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2936,6 +2947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3222,8 +3234,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A6" zoomScale="97" workbookViewId="0">
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3250,33 +3262,33 @@
         <v>2</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>373</v>
@@ -3284,105 +3296,105 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="186" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -3391,79 +3403,79 @@
         <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3507,20 +3519,20 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>1</v>
@@ -3534,54 +3546,54 @@
         <v>21</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
       <c r="B3" s="24"/>
       <c r="C3" s="13" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="25"/>
       <c r="B4" s="24"/>
       <c r="C4" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
@@ -3591,11 +3603,11 @@
       <c r="A5" s="25"/>
       <c r="B5" s="24"/>
       <c r="C5" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
@@ -3605,37 +3617,37 @@
       <c r="A6" s="25"/>
       <c r="B6" s="24"/>
       <c r="C6" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="25"/>
       <c r="B7" s="24"/>
       <c r="C7" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>5</v>
@@ -3645,37 +3657,37 @@
       <c r="A8" s="25"/>
       <c r="B8" s="24"/>
       <c r="C8" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="24"/>
       <c r="C9" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>5</v>
@@ -3685,31 +3697,31 @@
       <c r="A10" s="25"/>
       <c r="B10" s="24"/>
       <c r="C10" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="24"/>
       <c r="C11" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
@@ -3719,11 +3731,11 @@
       <c r="A12" s="25"/>
       <c r="B12" s="24"/>
       <c r="C12" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
@@ -3733,51 +3745,51 @@
       <c r="A13" s="25"/>
       <c r="B13" s="24"/>
       <c r="C13" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="25"/>
       <c r="B14" s="24"/>
       <c r="C14" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="24"/>
       <c r="C15" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
@@ -3787,7 +3799,7 @@
       <c r="A16" s="25"/>
       <c r="B16" s="24"/>
       <c r="C16" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -3795,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>5</v>
@@ -3806,102 +3818,102 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="25"/>
       <c r="B18" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="25"/>
       <c r="B19" s="23"/>
       <c r="C19" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="25"/>
       <c r="B20" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="25"/>
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
@@ -3910,14 +3922,14 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="25"/>
       <c r="B22" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
@@ -3926,220 +3938,220 @@
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25"/>
       <c r="B23" s="24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="25"/>
       <c r="B24" s="24"/>
       <c r="C24" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="25"/>
       <c r="B25" s="24"/>
       <c r="C25" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="25"/>
       <c r="B26" s="24"/>
       <c r="C26" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="25"/>
       <c r="B27" s="24"/>
       <c r="C27" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="25"/>
       <c r="B28" s="24"/>
       <c r="C28" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="25"/>
       <c r="B29" s="24"/>
       <c r="C29" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="25"/>
       <c r="B30" s="24"/>
       <c r="C30" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="25"/>
       <c r="B31" s="24"/>
       <c r="C31" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="25"/>
       <c r="B32" s="24"/>
       <c r="C32" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="25"/>
       <c r="B33" s="24"/>
       <c r="C33" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -4147,19 +4159,19 @@
         <v>4</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="25"/>
       <c r="B34" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -4167,17 +4179,17 @@
         <v>4</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="25"/>
       <c r="B35" s="23"/>
       <c r="C35" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -4185,72 +4197,72 @@
         <v>4</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="25"/>
       <c r="B36" s="23"/>
       <c r="C36" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="25"/>
       <c r="B37" s="23"/>
       <c r="C37" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="25"/>
       <c r="B38" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -4258,63 +4270,63 @@
         <v>16</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="25"/>
       <c r="B40" s="23"/>
       <c r="C40" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="25"/>
       <c r="B41" s="23"/>
       <c r="C41" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -4322,14 +4334,14 @@
         <v>17</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="14"/>
@@ -4339,11 +4351,11 @@
       <c r="A43" s="25"/>
       <c r="B43" s="24"/>
       <c r="C43" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="14"/>
@@ -4353,11 +4365,11 @@
       <c r="A44" s="25"/>
       <c r="B44" s="24"/>
       <c r="C44" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="14"/>
@@ -4367,11 +4379,11 @@
       <c r="A45" s="25"/>
       <c r="B45" s="24"/>
       <c r="C45" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="14"/>
@@ -4381,11 +4393,11 @@
       <c r="A46" s="25"/>
       <c r="B46" s="24"/>
       <c r="C46" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="14"/>
@@ -4394,34 +4406,34 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="25"/>
       <c r="B47" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="25"/>
       <c r="B48" s="24"/>
       <c r="C48" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="14"/>
@@ -4431,11 +4443,11 @@
       <c r="A49" s="25"/>
       <c r="B49" s="24"/>
       <c r="C49" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="14"/>
@@ -4445,11 +4457,11 @@
       <c r="A50" s="25"/>
       <c r="B50" s="24"/>
       <c r="C50" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
@@ -4459,11 +4471,11 @@
       <c r="A51" s="25"/>
       <c r="B51" s="24"/>
       <c r="C51" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="14"/>
@@ -4473,11 +4485,11 @@
       <c r="A52" s="25"/>
       <c r="B52" s="24"/>
       <c r="C52" s="17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="14"/>
@@ -4487,11 +4499,11 @@
       <c r="A53" s="25"/>
       <c r="B53" s="24"/>
       <c r="C53" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="14"/>
@@ -4500,14 +4512,14 @@
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.15">
       <c r="A54" s="25"/>
       <c r="B54" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
@@ -4563,902 +4575,902 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5498,171 +5510,171 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5674,66 +5686,48 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A3:D21"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="82.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="26"/>
+    <col min="2" max="2" width="15.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="26"/>
+    <col min="4" max="4" width="82.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="26"/>
+    <col min="7" max="7" width="27.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D21" t="s">
-        <v>334</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -5760,194 +5754,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="396">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -2207,6 +2207,525 @@
   </si>
   <si>
     <t>boikgpokn78sb95ktmsc1bnken8tuboa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.aginomoto.com *.galaxytv.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/log/boikgpokn78sb95kjhfrendo8dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/uploadplaylog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/mtvkidslog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/mobilehelperlog  /mobilelog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vrlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/vrapplog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wha1ey#666@e3!</t>
+  </si>
+  <si>
+    <t>whaley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whaleyTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/applog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/log/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whaley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eagle</t>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹰</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+wlslog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+log.moretv.com.cn log.tvmore.com.cn 
+log2.tvmore.com.cn log3.tvmore.com.cn
+16机器外网IP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/activity /medusalog </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2275,450 +2794,24 @@
 /operationlog/ /paylog/ /romlog/
 /tvlog/ /upgradelog/ /userinforlog/
 /adlog/ /operationlog/ /pagelog/
-/videolog/ /playqoslog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.aginomoto.com *.galaxytv.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/log/boikgpokn78sb95kjhfrendo8dc5mlsr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkklf477ap</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-log.moretv.com.cn log.tvmore.com.cn 
-log2.tvmore.com.cn log3.tvmore.com.cn
-16机器外网IP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/activity /medusalog /moretv/userdurationlog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/uploadplaylog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/mtvkidslog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/mobilehelperlog  /mobilelog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-vrlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/vrapplog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wha1ey#666@e3!</t>
-  </si>
-  <si>
-    <t>whaley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whaleyTV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/applog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/log/</t>
+/videolog/ /playqoslog /moretv/userdurationlog
+/price</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crashlog.aginomoto.com;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wlslog.aginomoto.com.conf</t>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/log/boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2872,7 +2965,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2941,13 +3034,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3234,8 +3336,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="97" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView topLeftCell="A7" zoomScale="97" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3275,39 +3377,39 @@
       <c r="A2" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="23" t="s">
         <v>305</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="23" t="s">
         <v>306</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -3321,20 +3423,20 @@
       <c r="A4" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="23" t="s">
         <v>307</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>362</v>
@@ -3344,20 +3446,20 @@
       <c r="A5" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="23" t="s">
         <v>310</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>358</v>
@@ -3367,66 +3469,66 @@
       <c r="A6" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="23" t="s">
         <v>312</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="186" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="23" t="s">
         <v>308</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>364</v>
@@ -3439,13 +3541,13 @@
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="23" t="s">
         <v>313</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -3462,13 +3564,13 @@
       <c r="B10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="23" t="s">
         <v>298</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -3478,7 +3580,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3496,10 +3618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="111" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="111" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3542,10 +3664,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="25">
+      <c r="A2" s="29">
         <v>21</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>316</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -3566,8 +3688,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="13" t="s">
         <v>333</v>
       </c>
@@ -3586,8 +3708,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="12" t="s">
         <v>206</v>
       </c>
@@ -3600,8 +3722,8 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="12" t="s">
         <v>207</v>
       </c>
@@ -3614,8 +3736,8 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="13" t="s">
         <v>259</v>
       </c>
@@ -3634,8 +3756,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="13" t="s">
         <v>208</v>
       </c>
@@ -3654,8 +3776,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="13" t="s">
         <v>323</v>
       </c>
@@ -3674,8 +3796,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="13" t="s">
         <v>324</v>
       </c>
@@ -3694,8 +3816,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="13" t="s">
         <v>322</v>
       </c>
@@ -3714,8 +3836,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="12" t="s">
         <v>209</v>
       </c>
@@ -3728,8 +3850,8 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="12" t="s">
         <v>210</v>
       </c>
@@ -3742,8 +3864,8 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="13" t="s">
         <v>320</v>
       </c>
@@ -3762,8 +3884,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
         <v>321</v>
       </c>
@@ -3782,8 +3904,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="12" t="s">
         <v>211</v>
       </c>
@@ -3796,8 +3918,8 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="12" t="s">
         <v>212</v>
       </c>
@@ -3814,11 +3936,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="25">
+      <c r="A17" s="29">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>392</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>217</v>
@@ -3840,8 +3962,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="27" t="s">
         <v>213</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -3862,8 +3984,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="6" t="s">
         <v>215</v>
       </c>
@@ -3882,7 +4004,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="7" t="s">
         <v>235</v>
       </c>
@@ -3904,7 +4026,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
@@ -3920,7 +4042,7 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="8" t="s">
         <v>228</v>
       </c>
@@ -3936,8 +4058,8 @@
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="28" t="s">
         <v>221</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3960,8 +4082,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="25"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="6" t="s">
         <v>243</v>
       </c>
@@ -3982,8 +4104,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="6" t="s">
         <v>239</v>
       </c>
@@ -4004,8 +4126,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="6" t="s">
         <v>240</v>
       </c>
@@ -4026,8 +4148,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="25"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="6" t="s">
         <v>241</v>
       </c>
@@ -4048,8 +4170,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="25"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="6" t="s">
         <v>242</v>
       </c>
@@ -4068,8 +4190,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="25"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="6" t="s">
         <v>289</v>
       </c>
@@ -4088,8 +4210,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="25"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="6" t="s">
         <v>244</v>
       </c>
@@ -4108,8 +4230,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="25"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="6" t="s">
         <v>245</v>
       </c>
@@ -4128,8 +4250,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="25"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="6" t="s">
         <v>238</v>
       </c>
@@ -4148,8 +4270,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="25"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="6" t="s">
         <v>222</v>
       </c>
@@ -4166,8 +4288,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="25"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="27" t="s">
         <v>223</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -4186,8 +4308,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="6" t="s">
         <v>251</v>
       </c>
@@ -4204,8 +4326,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="25"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="11" t="s">
         <v>252</v>
       </c>
@@ -4224,8 +4346,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="25"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="6" t="s">
         <v>224</v>
       </c>
@@ -4244,80 +4366,82 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="25"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="29"/>
+      <c r="B39" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="25">
-        <v>16</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
-        <v>314</v>
-      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="25"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="29">
+        <v>16</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>319</v>
+      </c>
       <c r="C40" s="6" t="s">
-        <v>30</v>
+        <v>317</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="25"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="6" t="s">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>4</v>
@@ -4326,32 +4450,38 @@
         <v>296</v>
       </c>
       <c r="H41" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="29"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H42" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="29">
         <v>17</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B43" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C43" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="25"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="10" t="s">
@@ -4362,10 +4492,10 @@
       <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="25"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="10" t="s">
@@ -4376,10 +4506,10 @@
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="25"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="10" t="s">
@@ -4390,10 +4520,10 @@
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="25"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="17" t="s">
-        <v>254</v>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="10" t="s">
@@ -4404,46 +4534,46 @@
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="25"/>
-      <c r="B47" s="24" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
+      <c r="B48" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G48" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H48" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="25"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="17" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="25"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="17" t="s">
-        <v>256</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="10" t="s">
@@ -4454,10 +4584,10 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="25"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="17" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="10" t="s">
@@ -4468,10 +4598,10 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="25"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="10" t="s">
@@ -4482,10 +4612,10 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="25"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="17" t="s">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="10" t="s">
@@ -4496,10 +4626,10 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="25"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="17" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="10" t="s">
@@ -4509,34 +4639,48 @@
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A54" s="25"/>
-      <c r="B54" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>234</v>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
-        <v>304</v>
+      <c r="E54" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
     </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A55" s="29"/>
+      <c r="B55" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="A43:A55"/>
+    <mergeCell ref="B48:B54"/>
     <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A17:A38"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A17:A39"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B23:B33"/>
-    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B40:B42"/>
     <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5688,46 +5832,46 @@
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="26"/>
-    <col min="2" max="2" width="15.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="26"/>
-    <col min="4" max="4" width="82.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="26"/>
-    <col min="7" max="7" width="27.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="10.83203125" style="24"/>
+    <col min="2" max="2" width="15.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="24"/>
+    <col min="4" max="4" width="82.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="24"/>
+    <col min="7" max="7" width="27.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="26" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>383</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -2804,14 +2804,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wlslog.aginomoto.com.conf</t>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/log/boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wlslog.aginomoto.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3337,7 +3338,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="97" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3620,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="111" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="111" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4368,13 +4369,13 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="29"/>
       <c r="B38" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="402">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -2814,6 +2814,32 @@
   <si>
     <t>wlslog.aginomoto.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_menu_2</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendobgjgjolq</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendoepkseljn</t>
+  </si>
+  <si>
+    <t>全局菜单2.0</t>
+    <rPh sb="0" eb="1">
+      <t>quan'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下店演示用的应用，作用是 保证所有电视播的画面是同步的</t>
   </si>
 </sst>
 </file>
@@ -3032,15 +3058,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3337,16 +3363,16 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3374,20 +3400,20 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="94" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="26" t="s">
         <v>305</v>
       </c>
       <c r="F2" s="19" t="s">
@@ -3397,20 +3423,20 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>306</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -3420,20 +3446,20 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="26" t="s">
         <v>307</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -3443,20 +3469,20 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="26" t="s">
         <v>310</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -3466,20 +3492,20 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="26" t="s">
         <v>312</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -3493,16 +3519,16 @@
       <c r="A7" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -3512,20 +3538,20 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="26" t="s">
         <v>308</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -3535,20 +3561,20 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>340</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="26" t="s">
         <v>313</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -3558,20 +3584,20 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>341</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="26" t="s">
         <v>298</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -3602,8 +3628,44 @@
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
     <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3621,7 +3683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="111" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="111" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B40" sqref="B40:B42"/>
     </sheetView>
   </sheetViews>
@@ -4368,7 +4430,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="29"/>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>395</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -4381,10 +4443,10 @@
       <c r="F38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="25" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5839,39 +5901,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="24"/>
-    <col min="2" max="2" width="15.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="24"/>
-    <col min="4" max="4" width="82.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="24"/>
-    <col min="7" max="7" width="27.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="24"/>
+    <col min="1" max="1" width="10.83203125" style="23"/>
+    <col min="2" max="2" width="15.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="23"/>
+    <col min="4" max="4" width="82.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="23"/>
+    <col min="7" max="7" width="27.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>383</v>
       </c>
     </row>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -37,6 +37,40 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">Microsoft Office 用户:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>由于wui2.0上线后使用了boikgpokn78sb95ktmsc1bnkklf477ap， whaley medusa main3.0 转为 whaley medusa main3.x</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office 用户</author>
+  </authors>
+  <commentList>
     <comment ref="C2" authorId="0">
       <text>
         <r>
@@ -66,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="406">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -2187,10 +2221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boikgpokn78sb95ktmsc1bnkklf477ap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boikgpokn78sb95kbqei6cc98dc5mlsr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2268,56 +2298,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>/log/boikgpokn78sb95kjhfrendo8dc5mlsr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkklf477ap</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2840,6 +2820,76 @@
   </si>
   <si>
     <t>线下店演示用的应用，作用是 保证所有电视播的画面是同步的</t>
+  </si>
+  <si>
+    <t>main3.x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wui2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WUI2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkechpgj9l</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendoj8ilnoi7
+boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3359,12 +3409,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3402,7 +3452,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="94" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>4</v>
@@ -3411,21 +3461,21 @@
         <v>183</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>274</v>
+        <v>400</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>305</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>4</v>
@@ -3448,7 +3498,7 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>4</v>
@@ -3463,7 +3513,7 @@
         <v>307</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>362</v>
@@ -3486,7 +3536,7 @@
         <v>310</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>358</v>
@@ -3494,7 +3544,7 @@
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>4</v>
@@ -3509,7 +3559,7 @@
         <v>312</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>363</v>
@@ -3517,7 +3567,7 @@
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>4</v>
@@ -3532,15 +3582,15 @@
         <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>4</v>
@@ -3555,7 +3605,7 @@
         <v>308</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>364</v>
@@ -3609,28 +3659,28 @@
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -3639,17 +3689,17 @@
         <v>295</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>4</v>
@@ -3658,15 +3708,33 @@
         <v>295</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3676,6 +3744,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4003,7 +4072,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>217</v>
@@ -4431,23 +4500,23 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="29"/>
       <c r="B38" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -5912,29 +5981,29 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>381</v>
-      </c>
       <c r="C4" s="23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
@@ -3413,8 +3413,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A3" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6019,8 +6019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
@@ -2834,9 +2834,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2889,6 +2886,10 @@
   <si>
     <t>boikgpokn78sb95kjhfrendoj8ilnoi7
 boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3413,8 +3414,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3450,9 +3451,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="94" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>4</v>
@@ -3470,10 +3471,10 @@
         <v>388</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>369</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>368</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>338</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>367</v>
       </c>
@@ -3588,7 +3589,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>365</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>340</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>341</v>
       </c>
@@ -3718,7 +3719,7 @@
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>4</v>
@@ -6019,8 +6020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="409">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -2890,6 +2890,26 @@
   </si>
   <si>
     <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kicggqhbkepkseljn</t>
+  </si>
+  <si>
+    <t>全局菜单2.0(虎鲸）</t>
+    <rPh sb="0" eb="1">
+      <t>quan'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'd</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hu'j</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3034,8 +3054,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3129,14 +3151,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3414,8 +3438,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3736,7 +3760,25 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="412">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -2598,10 +2598,6 @@
     <rPh sb="1" eb="2">
       <t>ying</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2803,12 +2799,6 @@
     <t>global_menu_2</t>
   </si>
   <si>
-    <t>boikgpokn78sb95kjhfrendobgjgjolq</t>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kjhfrendoepkseljn</t>
-  </si>
-  <si>
     <t>全局菜单2.0</t>
     <rPh sb="0" eb="1">
       <t>quan'j</t>
@@ -2830,10 +2820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WUI2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2884,20 +2870,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boikgpokn78sb95kjhfrendoj8ilnoi7
-boikgpokn78sb95ktmsc1bnkklf477ap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>orca</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kicggqhbkepkseljn</t>
   </si>
   <si>
     <t>全局菜单2.0(虎鲸）</t>
@@ -2910,6 +2888,42 @@
     <rPh sb="8" eb="9">
       <t>hu'j</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendobgjgjolq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1 medusalog2.aiseewhaley.aisee.tv - [-] "GET /do_not_delete/noc.gif HTTP/1.0" 200 43 "-" "ChinaCache" "220.181.46.235" "-" "-" "-" "0.000"</t>
+  </si>
+  <si>
+    <t>17:/var/log/nginx/medusalog.access.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:bisdk-config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendoj8ilnoi7
+boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WUI2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kicggqhbkepkseljn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendoepkseljn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3438,8 +3452,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3475,9 +3489,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="94" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>4</v>
@@ -3486,19 +3500,19 @@
         <v>183</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>305</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>369</v>
       </c>
@@ -3521,7 +3535,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>368</v>
       </c>
@@ -3544,7 +3558,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>338</v>
       </c>
@@ -3567,7 +3581,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>367</v>
       </c>
@@ -3607,13 +3621,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>365</v>
       </c>
@@ -3636,7 +3650,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>340</v>
       </c>
@@ -3659,7 +3673,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>341</v>
       </c>
@@ -3684,7 +3698,7 @@
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>382</v>
@@ -3700,12 +3714,12 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -3714,17 +3728,17 @@
         <v>295</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>4</v>
@@ -3733,17 +3747,17 @@
         <v>295</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>4</v>
@@ -3752,29 +3766,29 @@
         <v>295</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3793,10 +3807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="111" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B42"/>
+    <sheetView topLeftCell="A32" zoomScale="111" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4115,7 +4129,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>217</v>
@@ -4543,13 +4557,13 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="29"/>
       <c r="B38" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
@@ -4843,6 +4857,19 @@
       <c r="F55" s="13"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -2915,15 +2915,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>boikgpokn78sb95kicggqhbkepkseljn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendoepkseljn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>WUI2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kicggqhbkepkseljn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kjhfrendoepkseljn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3453,7 +3453,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3489,7 +3489,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="94" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>400</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>369</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>368</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>338</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>367</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>365</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>340</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>341</v>
       </c>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>4</v>
@@ -3769,14 +3769,14 @@
         <v>398</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>376</v>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="416">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -2925,6 +2925,30 @@
   <si>
     <t>WUI2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微鲸手机助手</t>
+    <rPh sb="0" eb="1">
+      <t>we'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whaleytv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilehelper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendojtihcg26</t>
   </si>
 </sst>
 </file>
@@ -3452,14 +3476,14 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
@@ -3793,7 +3817,25 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="419">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -2949,6 +2949,47 @@
   </si>
   <si>
     <t>boikgpokn78sb95kjhfrendojtihcg26</t>
+  </si>
+  <si>
+    <t>webportal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端web系统提供的各类后端服务入口页应用</t>
+    <rPh sb="0" eb="1">
+      <t>qian'duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi't</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ge'lei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hou'duan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fu'w</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ru'k</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ying'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendosesh6bmu</t>
   </si>
 </sst>
 </file>
@@ -3476,8 +3517,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3836,9 +3877,27 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -37,7 +37,7 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0">
+    <comment ref="A16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="426">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -2870,10 +2870,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>orca</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2906,11 +2902,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boikgpokn78sb95kjhfrendoj8ilnoi7
-boikgpokn78sb95ktmsc1bnkklf477ap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2989,7 +2980,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>boikgpokn78sb95kjhfrendoj8ilnoi7
+boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medusa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountsys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>boikgpokn78sb95kjhfrendosesh6bmu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkeigo5hud</t>
+  </si>
+  <si>
+    <t>电视猫账号系统</t>
+    <rPh sb="0" eb="1">
+      <t>dian'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang'h</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb9500000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whaley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统保留appId,做一些特殊用途,比如未提交到appId下的需要记录的日志</t>
+    <rPh sb="0" eb="1">
+      <t>xi't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'l</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'x</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>te'sh</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yong'tu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bi'ru</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ti'j</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>d</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ji'l</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>d</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3133,8 +3221,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3230,16 +3320,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3515,10 +3607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3554,32 +3646,24 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>397</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>4</v>
@@ -3588,21 +3672,21 @@
         <v>183</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>277</v>
+        <v>397</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>337</v>
+        <v>305</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>387</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>4</v>
@@ -3611,21 +3695,21 @@
         <v>183</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>4</v>
@@ -3634,195 +3718,199 @@
         <v>183</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>358</v>
+        <v>371</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>339</v>
+        <v>183</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="C7" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E10" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C11" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D11" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E11" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C12" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D12" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E12" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="11" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="11" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>407</v>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>4</v>
@@ -3831,73 +3919,110 @@
         <v>295</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>376</v>
+        <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>401</v>
+        <v>295</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>394</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="B16" s="26" t="s">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>414</v>
+        <v>295</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>4</v>
+        <v>407</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4961,15 +5086,15 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fj/workspace/whaley/projects/WhaleyLogSys/docs/design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kassell/workspace/WhaleyLogSys/docs/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
-    <sheet name="location应用整理" sheetId="6" r:id="rId2"/>
-    <sheet name="nginx location" sheetId="3" r:id="rId3"/>
-    <sheet name="nginx server_name" sheetId="5" r:id="rId4"/>
-    <sheet name="并网测试" sheetId="4" r:id="rId5"/>
-    <sheet name="工作表1" sheetId="7" r:id="rId6"/>
+    <sheet name="topic对应关系" sheetId="8" r:id="rId2"/>
+    <sheet name="location应用整理" sheetId="6" r:id="rId3"/>
+    <sheet name="nginx location" sheetId="3" r:id="rId4"/>
+    <sheet name="nginx server_name" sheetId="5" r:id="rId5"/>
+    <sheet name="并网测试" sheetId="4" r:id="rId6"/>
+    <sheet name="工作表1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">工作表1!$B$1:$B$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">工作表1!$B$1:$B$25</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -71,6 +72,40 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">Microsoft Office 用户:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>由于wui2.0上线后使用了boikgpokn78sb95ktmsc1bnkklf477ap， whaley medusa main3.0 转为 whaley medusa main3.x</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office 用户</author>
+  </authors>
+  <commentList>
     <comment ref="C2" authorId="0">
       <text>
         <r>
@@ -100,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="447">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -3079,12 +3114,92 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Kafka Topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_crawler</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kkls3bhmtjqosocdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kkls3bhmtichjhhm8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_eagle</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_medusa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnken8tuboa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkfipphckl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_mobilehelper</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjtihcg268dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_orca</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kicggqhbkepkseljn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_whaleytv</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendo8dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendoj8ilnoi7</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkklf477ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_whaleyvr</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kbqei6cc98dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partition数量</t>
+    <rPh sb="9" eb="10">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3170,6 +3285,15 @@
       <color theme="1"/>
       <name val="宋体 (正文)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3234,7 +3358,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3318,6 +3442,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3609,7 +3739,7 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+    <sheetView zoomScale="97" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4032,6 +4162,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="27"/>
+      <c r="B3" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="29"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" s="31">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C11:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -5117,7 +5421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F147"/>
@@ -6054,7 +6358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:G20"/>
@@ -6255,7 +6559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:C5"/>
@@ -6311,7 +6615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="449">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -3119,9 +3119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log_raw_crawler</t>
-  </si>
-  <si>
     <t>boikgpokn78sb95kkls3bhmtjqosocdj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3130,17 +3127,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log_raw_eagle</t>
-  </si>
-  <si>
     <t>boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log_raw_medusa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3153,23 +3143,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log_raw_mobilehelper</t>
-  </si>
-  <si>
     <t>boikgpokn78sb95kjtihcg268dc5mlsr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log_raw_orca</t>
-  </si>
-  <si>
     <t>boikgpokn78sb95kicggqhbkepkseljn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log_raw_whaleytv</t>
-  </si>
-  <si>
     <t>boikgpokn78sb95kjhfrendo8dc5mlsr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3179,9 +3160,6 @@
   <si>
     <t>boikgpokn78sb95ktmsc1bnkklf477ap</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_raw_whaleyvr</t>
   </si>
   <si>
     <t>boikgpokn78sb95kbqei6cc98dc5mlsr</t>
@@ -3192,6 +3170,54 @@
     <rPh sb="9" eb="10">
       <t>shu'liang</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_boikgpokn78sb95kkls3bhmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_boikgpokn78sb95k7id7n8eb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_boikgpokn78sb95ktmsc1bnk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_boikgpokn78sb95kjtihcg26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_boikgpokn78sb95kicggqhbk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_boikgpokn78sb95kjhfrendo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_raw_boikgpokn78sb95kbqei6cc9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数仓ods原始层表名</t>
+    <rPh sb="0" eb="1">
+      <t>shu'cang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>biao'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3434,20 +3460,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3737,10 +3763,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3751,9 +3777,10 @@
     <col min="5" max="5" width="58.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -3775,8 +3802,11 @@
       <c r="G1" s="20" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1" s="22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>423</v>
       </c>
@@ -3791,7 +3821,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>422</v>
       </c>
@@ -3813,8 +3843,11 @@
       <c r="G3" s="19" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="H3" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>369</v>
       </c>
@@ -3836,8 +3869,11 @@
       <c r="G4" s="19" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="H4" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>368</v>
       </c>
@@ -3859,8 +3895,11 @@
       <c r="G5" s="19" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="H5" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>338</v>
       </c>
@@ -3882,8 +3921,11 @@
       <c r="G6" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>420</v>
       </c>
@@ -3901,8 +3943,11 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="H7" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>367</v>
       </c>
@@ -3924,8 +3969,11 @@
       <c r="G8" s="11" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>366</v>
       </c>
@@ -3947,8 +3995,11 @@
       <c r="G9" s="11" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="H9" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>365</v>
       </c>
@@ -3970,8 +4021,11 @@
       <c r="G10" s="11" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="H10" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>340</v>
       </c>
@@ -3993,8 +4047,11 @@
       <c r="G11" s="11" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="H11" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>341</v>
       </c>
@@ -4016,8 +4073,11 @@
       <c r="G12" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="H12" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>406</v>
       </c>
@@ -4037,8 +4097,11 @@
       <c r="G13" s="11" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>402</v>
       </c>
@@ -4056,8 +4119,11 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>408</v>
       </c>
@@ -4075,8 +4141,11 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="H15" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>416</v>
       </c>
@@ -4094,8 +4163,11 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>407</v>
       </c>
@@ -4113,8 +4185,11 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>413</v>
       </c>
@@ -4132,8 +4207,11 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>419</v>
       </c>
@@ -4151,8 +4229,11 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="H19" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4165,158 +4246,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="33.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>446</v>
+      <c r="C1" s="27" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C5" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C4" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C5" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="29"/>
+        <v>432</v>
+      </c>
+      <c r="C8" s="30"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C9" s="31">
+        <v>433</v>
+      </c>
+      <c r="C9" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C10" s="31">
+        <v>434</v>
+      </c>
+      <c r="C10" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="27" t="s">
-        <v>440</v>
+      <c r="A11" s="29" t="s">
+        <v>445</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C11" s="29">
+        <v>435</v>
+      </c>
+      <c r="C11" s="30">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14" s="29"/>
+        <v>436</v>
+      </c>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="C15" s="29"/>
+        <v>437</v>
+      </c>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C16" s="31">
+        <v>438</v>
+      </c>
+      <c r="C16" s="28">
         <v>6</v>
       </c>
     </row>
@@ -4383,10 +4463,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="29">
+      <c r="A2" s="30">
         <v>21</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>316</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -4407,8 +4487,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="13" t="s">
         <v>333</v>
       </c>
@@ -4427,8 +4507,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="12" t="s">
         <v>206</v>
       </c>
@@ -4441,8 +4521,8 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="12" t="s">
         <v>207</v>
       </c>
@@ -4455,8 +4535,8 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="13" t="s">
         <v>259</v>
       </c>
@@ -4475,8 +4555,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="13" t="s">
         <v>208</v>
       </c>
@@ -4495,8 +4575,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="13" t="s">
         <v>323</v>
       </c>
@@ -4515,8 +4595,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13" t="s">
         <v>324</v>
       </c>
@@ -4535,8 +4615,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="13" t="s">
         <v>322</v>
       </c>
@@ -4555,8 +4635,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="12" t="s">
         <v>209</v>
       </c>
@@ -4569,8 +4649,8 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="12" t="s">
         <v>210</v>
       </c>
@@ -4583,8 +4663,8 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13" t="s">
         <v>320</v>
       </c>
@@ -4603,8 +4683,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13" t="s">
         <v>321</v>
       </c>
@@ -4623,8 +4703,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="12" t="s">
         <v>211</v>
       </c>
@@ -4637,8 +4717,8 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="12" t="s">
         <v>212</v>
       </c>
@@ -4655,7 +4735,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
+      <c r="A17" s="30">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -4681,8 +4761,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="29" t="s">
         <v>213</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -4703,8 +4783,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="6" t="s">
         <v>215</v>
       </c>
@@ -4723,7 +4803,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="7" t="s">
         <v>235</v>
       </c>
@@ -4745,7 +4825,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
@@ -4761,7 +4841,7 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="8" t="s">
         <v>228</v>
       </c>
@@ -4777,8 +4857,8 @@
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31" t="s">
         <v>221</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -4801,8 +4881,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="6" t="s">
         <v>243</v>
       </c>
@@ -4823,8 +4903,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="6" t="s">
         <v>239</v>
       </c>
@@ -4845,8 +4925,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="6" t="s">
         <v>240</v>
       </c>
@@ -4867,8 +4947,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="6" t="s">
         <v>241</v>
       </c>
@@ -4889,8 +4969,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="6" t="s">
         <v>242</v>
       </c>
@@ -4909,8 +4989,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
         <v>289</v>
       </c>
@@ -4929,8 +5009,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="6" t="s">
         <v>244</v>
       </c>
@@ -4949,8 +5029,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="6" t="s">
         <v>245</v>
       </c>
@@ -4969,8 +5049,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="6" t="s">
         <v>238</v>
       </c>
@@ -4989,8 +5069,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="6" t="s">
         <v>222</v>
       </c>
@@ -5007,8 +5087,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="29" t="s">
         <v>223</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -5027,8 +5107,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="6" t="s">
         <v>251</v>
       </c>
@@ -5045,8 +5125,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="11" t="s">
         <v>252</v>
       </c>
@@ -5065,8 +5145,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="6" t="s">
         <v>224</v>
       </c>
@@ -5085,7 +5165,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="24" t="s">
         <v>392</v>
       </c>
@@ -5107,7 +5187,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="5" t="s">
         <v>318</v>
       </c>
@@ -5129,10 +5209,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="29">
+      <c r="A40" s="30">
         <v>16</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="31" t="s">
         <v>319</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -5153,8 +5233,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="6" t="s">
         <v>30</v>
       </c>
@@ -5173,8 +5253,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="6" t="s">
         <v>300</v>
       </c>
@@ -5193,10 +5273,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="29">
+      <c r="A43" s="30">
         <v>17</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="31" t="s">
         <v>232</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -5211,8 +5291,8 @@
       <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="16" t="s">
         <v>38</v>
       </c>
@@ -5225,8 +5305,8 @@
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="16" t="s">
         <v>27</v>
       </c>
@@ -5239,8 +5319,8 @@
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="16" t="s">
         <v>31</v>
       </c>
@@ -5253,8 +5333,8 @@
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="17" t="s">
         <v>254</v>
       </c>
@@ -5267,8 +5347,8 @@
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
-      <c r="B48" s="28" t="s">
+      <c r="A48" s="30"/>
+      <c r="B48" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -5289,8 +5369,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="29"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="17" t="s">
         <v>255</v>
       </c>
@@ -5303,8 +5383,8 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="17" t="s">
         <v>256</v>
       </c>
@@ -5317,8 +5397,8 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
-      <c r="B51" s="28"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="17" t="s">
         <v>38</v>
       </c>
@@ -5331,8 +5411,8 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
-      <c r="B52" s="28"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="17" t="s">
         <v>27</v>
       </c>
@@ -5345,8 +5425,8 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="17" t="s">
         <v>288</v>
       </c>
@@ -5359,8 +5439,8 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="29"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="17" t="s">
         <v>52</v>
       </c>
@@ -5373,7 +5453,7 @@
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="7" t="s">
         <v>249</v>
       </c>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -13,15 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
-    <sheet name="topic对应关系" sheetId="8" r:id="rId2"/>
-    <sheet name="location应用整理" sheetId="6" r:id="rId3"/>
-    <sheet name="nginx location" sheetId="3" r:id="rId4"/>
-    <sheet name="nginx server_name" sheetId="5" r:id="rId5"/>
-    <sheet name="并网测试" sheetId="4" r:id="rId6"/>
-    <sheet name="工作表1" sheetId="7" r:id="rId7"/>
+    <sheet name="location应用整理" sheetId="6" r:id="rId2"/>
+    <sheet name="nginx location" sheetId="3" r:id="rId3"/>
+    <sheet name="nginx server_name" sheetId="5" r:id="rId4"/>
+    <sheet name="并网测试" sheetId="4" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">工作表1!$B$1:$B$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">工作表1!$B$1:$B$25</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -72,40 +71,6 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office 用户:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t>由于wui2.0上线后使用了boikgpokn78sb95ktmsc1bnkklf477ap， whaley medusa main3.0 转为 whaley medusa main3.x</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Microsoft Office 用户</author>
-  </authors>
-  <commentList>
     <comment ref="C2" authorId="0">
       <text>
         <r>
@@ -135,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="438">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -2253,18 +2218,6 @@
       <t xml:space="preserve">
 /log/boikgpokn78sb95kbqei6cc98dc5mlsr</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kbqei6cc98dc5mlsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kjhfrendo8dc5mlsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kjtihcg268dc5mlsr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2937,14 +2890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kicggqhbkepkseljn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boikgpokn78sb95kjhfrendoepkseljn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3119,50 +3064,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boikgpokn78sb95kkls3bhmtjqosocdj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kkls3bhmtichjhhm8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnken8tuboa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnkfipphckl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kjtihcg268dc5mlsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boikgpokn78sb95kicggqhbkepkseljn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kjhfrendo8dc5mlsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kjhfrendoj8ilnoi7</t>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnkklf477ap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kbqei6cc98dc5mlsr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3173,34 +3075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log_raw_boikgpokn78sb95kkls3bhmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_raw_boikgpokn78sb95k7id7n8eb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_raw_boikgpokn78sb95ktmsc1bnk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_raw_boikgpokn78sb95kjtihcg26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_raw_boikgpokn78sb95kicggqhbk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_raw_boikgpokn78sb95kjhfrendo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_raw_boikgpokn78sb95kbqei6cc9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数仓ods原始层表名</t>
     <rPh sb="0" eb="1">
       <t>shu'cang</t>
@@ -3218,6 +3092,53 @@
   </si>
   <si>
     <t>log_origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-raw-boikgpokn78sb95ktmsc1bnk</t>
+  </si>
+  <si>
+    <t>log-raw-boikgpokn78sb95ktmsc1bnk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendo8dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-raw-boikgpokn78sb95kjhfrendo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjtihcg268dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-raw-boikgpokn78sb95kjtihcg26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kbqei6cc98dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-raw-boikgpokn78sb95kbqei6cc9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-raw-boikgpokn78sb95kkls3bhmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-raw-boikgpokn78sb95k7id7n8eb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-raw-boikgpokn78sb95kicggqhbk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3225,7 +3146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3311,15 +3232,6 @@
       <color theme="1"/>
       <name val="宋体 (正文)"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3384,7 +3296,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3460,11 +3372,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3474,6 +3383,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3763,24 +3678,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="67.5" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -3802,28 +3719,37 @@
       <c r="G1" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>4</v>
@@ -3832,24 +3758,30 @@
         <v>183</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>305</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="I3" s="31">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>4</v>
@@ -3869,13 +3801,19 @@
       <c r="G4" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="H4" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4" s="31">
+        <v>12</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>4</v>
@@ -3890,16 +3828,22 @@
         <v>307</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="H5" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="I5" s="31">
+        <v>12</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>338</v>
       </c>
@@ -3916,40 +3860,52 @@
         <v>310</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="I6" s="32">
+        <v>12</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="H7" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="I7" s="27">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>4</v>
@@ -3964,18 +3920,24 @@
         <v>312</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I8" s="32">
+        <v>6</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>4</v>
@@ -3990,18 +3952,24 @@
         <v>6</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>367</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I9" s="32">
+        <v>12</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>4</v>
@@ -4016,16 +3984,22 @@
         <v>308</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="H10" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="I10" s="32">
+        <v>6</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>340</v>
       </c>
@@ -4047,11 +4021,17 @@
       <c r="G11" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="H11" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="I11" s="32">
+        <v>6</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>341</v>
       </c>
@@ -4073,37 +4053,49 @@
       <c r="G12" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="H12" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="I12" s="32">
+        <v>6</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="I13" s="32">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>4</v>
@@ -4112,20 +4104,26 @@
         <v>295</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I14" s="27">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>4</v>
@@ -4134,20 +4132,26 @@
         <v>295</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="H15" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I15" s="27">
+        <v>12</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>4</v>
@@ -4156,84 +4160,108 @@
         <v>295</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I16" s="27">
+        <v>12</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="I17" s="27">
+        <v>6</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I18" s="27">
+        <v>12</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="H19" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I19" s="27">
+        <v>12</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4243,179 +4271,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C2" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C3" s="30"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C5" s="30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" s="30"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" s="30"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C8" s="30"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C9" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C10" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C11" s="30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12" s="30"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C13" s="30"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C14" s="30"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C15" s="30"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C16" s="28">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C11:C15"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -4463,10 +4318,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="30">
+      <c r="A2" s="29">
         <v>21</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>316</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -4487,8 +4342,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="13" t="s">
         <v>333</v>
       </c>
@@ -4507,8 +4362,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="12" t="s">
         <v>206</v>
       </c>
@@ -4521,8 +4376,8 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="12" t="s">
         <v>207</v>
       </c>
@@ -4535,8 +4390,8 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="13" t="s">
         <v>259</v>
       </c>
@@ -4555,8 +4410,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="13" t="s">
         <v>208</v>
       </c>
@@ -4575,8 +4430,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="13" t="s">
         <v>323</v>
       </c>
@@ -4595,8 +4450,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="13" t="s">
         <v>324</v>
       </c>
@@ -4615,8 +4470,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="13" t="s">
         <v>322</v>
       </c>
@@ -4635,8 +4490,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="12" t="s">
         <v>209</v>
       </c>
@@ -4649,8 +4504,8 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="12" t="s">
         <v>210</v>
       </c>
@@ -4663,8 +4518,8 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="13" t="s">
         <v>320</v>
       </c>
@@ -4683,8 +4538,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="13" t="s">
         <v>321</v>
       </c>
@@ -4703,8 +4558,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
         <v>211</v>
       </c>
@@ -4717,8 +4572,8 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
         <v>212</v>
       </c>
@@ -4735,11 +4590,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="30">
+      <c r="A17" s="29">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>217</v>
@@ -4761,8 +4616,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="28" t="s">
         <v>213</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -4783,8 +4638,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="6" t="s">
         <v>215</v>
       </c>
@@ -4803,7 +4658,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="7" t="s">
         <v>235</v>
       </c>
@@ -4825,7 +4680,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
@@ -4841,7 +4696,7 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="8" t="s">
         <v>228</v>
       </c>
@@ -4857,8 +4712,8 @@
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30" t="s">
         <v>221</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -4881,8 +4736,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="6" t="s">
         <v>243</v>
       </c>
@@ -4903,8 +4758,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="6" t="s">
         <v>239</v>
       </c>
@@ -4925,8 +4780,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="6" t="s">
         <v>240</v>
       </c>
@@ -4947,8 +4802,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="6" t="s">
         <v>241</v>
       </c>
@@ -4969,8 +4824,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="6" t="s">
         <v>242</v>
       </c>
@@ -4989,8 +4844,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="6" t="s">
         <v>289</v>
       </c>
@@ -5009,8 +4864,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="6" t="s">
         <v>244</v>
       </c>
@@ -5029,8 +4884,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="6" t="s">
         <v>245</v>
       </c>
@@ -5049,8 +4904,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="6" t="s">
         <v>238</v>
       </c>
@@ -5069,8 +4924,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="6" t="s">
         <v>222</v>
       </c>
@@ -5087,8 +4942,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="30"/>
-      <c r="B34" s="29" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="28" t="s">
         <v>223</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -5107,8 +4962,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="30"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="6" t="s">
         <v>251</v>
       </c>
@@ -5125,8 +4980,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="30"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="11" t="s">
         <v>252</v>
       </c>
@@ -5145,8 +5000,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="30"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="6" t="s">
         <v>224</v>
       </c>
@@ -5165,29 +5020,29 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="30"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="24" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="5" t="s">
         <v>318</v>
       </c>
@@ -5209,10 +5064,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="30">
+      <c r="A40" s="29">
         <v>16</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="30" t="s">
         <v>319</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -5233,8 +5088,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="30"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="6" t="s">
         <v>30</v>
       </c>
@@ -5253,8 +5108,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="30"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="6" t="s">
         <v>300</v>
       </c>
@@ -5273,10 +5128,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="30">
+      <c r="A43" s="29">
         <v>17</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>232</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -5291,8 +5146,8 @@
       <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="16" t="s">
         <v>38</v>
       </c>
@@ -5305,8 +5160,8 @@
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="30"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="16" t="s">
         <v>27</v>
       </c>
@@ -5319,8 +5174,8 @@
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="16" t="s">
         <v>31</v>
       </c>
@@ -5333,8 +5188,8 @@
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="17" t="s">
         <v>254</v>
       </c>
@@ -5347,8 +5202,8 @@
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30" t="s">
         <v>233</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -5369,8 +5224,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="17" t="s">
         <v>255</v>
       </c>
@@ -5383,8 +5238,8 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="17" t="s">
         <v>256</v>
       </c>
@@ -5397,8 +5252,8 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="17" t="s">
         <v>38</v>
       </c>
@@ -5411,8 +5266,8 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="17" t="s">
         <v>27</v>
       </c>
@@ -5425,8 +5280,8 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="17" t="s">
         <v>288</v>
       </c>
@@ -5439,8 +5294,8 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="17" t="s">
         <v>52</v>
       </c>
@@ -5453,7 +5308,7 @@
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A55" s="30"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="7" t="s">
         <v>249</v>
       </c>
@@ -5470,15 +5325,15 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5501,7 +5356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F147"/>
@@ -6438,7 +6293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:G20"/>
@@ -6639,7 +6494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:C5"/>
@@ -6661,29 +6516,29 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -6695,7 +6550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="438">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -1610,7 +1610,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1634,7 +1634,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1660,7 +1660,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1684,7 +1684,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1727,7 +1727,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1739,7 +1739,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1771,7 +1771,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1862,7 +1862,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1886,7 +1886,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1912,7 +1912,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1936,7 +1936,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1962,7 +1962,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1986,7 +1986,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2012,7 +2012,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2036,7 +2036,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2062,7 +2062,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2086,7 +2086,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2113,7 +2113,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2125,7 +2125,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2149,7 +2149,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2161,7 +2161,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2186,7 +2186,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2210,7 +2210,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2243,7 +2243,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2268,7 +2268,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2280,7 +2280,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2306,7 +2306,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2318,7 +2318,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2343,7 +2343,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2355,7 +2355,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2380,7 +2380,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2405,7 +2405,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2432,7 +2432,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2444,7 +2444,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2469,7 +2469,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2481,7 +2481,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2506,7 +2506,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2530,7 +2530,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2594,7 +2594,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2605,7 +2605,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2619,7 +2619,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2630,7 +2630,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2656,7 +2656,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2682,7 +2682,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2708,7 +2708,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2736,7 +2736,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2748,7 +2748,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2823,7 +2823,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2847,7 +2847,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2996,67 +2996,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb9500000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>whaley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统保留appId,做一些特殊用途,比如未提交到appId下的需要记录的日志</t>
-    <rPh sb="0" eb="1">
-      <t>xi't</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao'l</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yi'x</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>te'sh</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yong'tu</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>bi'ru</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ti'j</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>d</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ji'l</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>d</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ri'zhi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3098,10 +3038,6 @@
     <t>log-raw-boikgpokn78sb95ktmsc1bnk</t>
   </si>
   <si>
-    <t>log-raw-boikgpokn78sb95ktmsc1bnk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boikgpokn78sb95kjhfrendo8dc5mlsr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3140,6 +3076,18 @@
   <si>
     <t>log-raw-boikgpokn78sb95kicggqhbk</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkechpgj9l</t>
+  </si>
+  <si>
+    <t>系统保留appId,做一些特殊用途,比如未提交到appId下的需要记录的日志</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb950000000000000000</t>
+  </si>
+  <si>
+    <t>log-raw-boikgpokn78sb95000000000</t>
   </si>
 </sst>
 </file>
@@ -3150,14 +3098,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3166,7 +3114,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3175,7 +3123,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3183,7 +3131,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3192,7 +3140,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3214,7 +3162,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3375,34 +3323,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3681,23 +3629,23 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="67.5" customWidth="1"/>
-    <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="6" max="6" width="49" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="22" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -3720,36 +3668,42 @@
         <v>336</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="H2" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="I2" s="28">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="100" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>4</v>
@@ -3770,16 +3724,16 @@
         <v>396</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="I3" s="31">
+        <v>423</v>
+      </c>
+      <c r="I3" s="28">
         <v>12</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>366</v>
       </c>
@@ -3802,16 +3756,16 @@
         <v>361</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="I4" s="31">
+        <v>423</v>
+      </c>
+      <c r="I4" s="28">
         <v>12</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>365</v>
       </c>
@@ -3834,16 +3788,16 @@
         <v>362</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="I5" s="31">
+        <v>423</v>
+      </c>
+      <c r="I5" s="28">
         <v>12</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>338</v>
       </c>
@@ -3866,16 +3820,16 @@
         <v>358</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="I6" s="32">
+        <v>423</v>
+      </c>
+      <c r="I6" s="29">
         <v>12</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>415</v>
       </c>
@@ -3894,18 +3848,18 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I7" s="27">
         <v>12</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>4</v>
@@ -3926,18 +3880,18 @@
         <v>363</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="I8" s="32">
+        <v>427</v>
+      </c>
+      <c r="I8" s="29">
         <v>6</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>4</v>
@@ -3958,18 +3912,18 @@
         <v>367</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="I9" s="32">
+        <v>425</v>
+      </c>
+      <c r="I9" s="29">
         <v>12</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>4</v>
@@ -3990,16 +3944,16 @@
         <v>364</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="I10" s="32">
+        <v>429</v>
+      </c>
+      <c r="I10" s="29">
         <v>6</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>340</v>
       </c>
@@ -4022,16 +3976,16 @@
         <v>360</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="I11" s="32">
+        <v>430</v>
+      </c>
+      <c r="I11" s="29">
         <v>6</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>341</v>
       </c>
@@ -4054,18 +4008,18 @@
         <v>359</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="I12" s="32">
+        <v>430</v>
+      </c>
+      <c r="I12" s="29">
         <v>6</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>379</v>
@@ -4084,16 +4038,16 @@
         <v>383</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="I13" s="32">
+        <v>432</v>
+      </c>
+      <c r="I13" s="29">
         <v>6</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>399</v>
       </c>
@@ -4112,16 +4066,16 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I14" s="27">
         <v>12</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>403</v>
       </c>
@@ -4140,16 +4094,16 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I15" s="27">
         <v>12</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>411</v>
       </c>
@@ -4168,18 +4122,18 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I16" s="27">
         <v>12</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>373</v>
@@ -4196,16 +4150,16 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I17" s="27">
         <v>6</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>408</v>
       </c>
@@ -4224,16 +4178,16 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I18" s="27">
         <v>12</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>414</v>
       </c>
@@ -4252,16 +4206,16 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I19" s="27">
         <v>12</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4278,7 +4232,7 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="41.5" style="3" bestFit="1" customWidth="1"/>
@@ -4293,7 +4247,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>236</v>
       </c>
@@ -4317,11 +4271,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="29">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="32">
         <v>21</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>316</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -4341,9 +4295,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="13" t="s">
         <v>333</v>
       </c>
@@ -4361,9 +4315,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="12" t="s">
         <v>206</v>
       </c>
@@ -4375,9 +4329,9 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="12" t="s">
         <v>207</v>
       </c>
@@ -4389,9 +4343,9 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="13" t="s">
         <v>259</v>
       </c>
@@ -4409,9 +4363,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="13" t="s">
         <v>208</v>
       </c>
@@ -4429,9 +4383,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="13" t="s">
         <v>323</v>
       </c>
@@ -4449,9 +4403,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13" t="s">
         <v>324</v>
       </c>
@@ -4469,9 +4423,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="13" t="s">
         <v>322</v>
       </c>
@@ -4489,9 +4443,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="12" t="s">
         <v>209</v>
       </c>
@@ -4503,9 +4457,9 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="12" t="s">
         <v>210</v>
       </c>
@@ -4517,9 +4471,9 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13" t="s">
         <v>320</v>
       </c>
@@ -4537,9 +4491,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13" t="s">
         <v>321</v>
       </c>
@@ -4557,9 +4511,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="12" t="s">
         <v>211</v>
       </c>
@@ -4571,9 +4525,9 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="12" t="s">
         <v>212</v>
       </c>
@@ -4589,8 +4543,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="32">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -4615,9 +4569,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="28" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="30" t="s">
         <v>213</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -4637,9 +4591,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="28"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="6" t="s">
         <v>215</v>
       </c>
@@ -4657,8 +4611,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
       <c r="B20" s="7" t="s">
         <v>235</v>
       </c>
@@ -4679,8 +4633,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
@@ -4695,8 +4649,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
       <c r="B22" s="8" t="s">
         <v>228</v>
       </c>
@@ -4711,9 +4665,9 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30" t="s">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="31" t="s">
         <v>221</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -4735,9 +4689,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="6" t="s">
         <v>243</v>
       </c>
@@ -4757,9 +4711,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="6" t="s">
         <v>239</v>
       </c>
@@ -4779,9 +4733,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="6" t="s">
         <v>240</v>
       </c>
@@ -4801,9 +4755,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="6" t="s">
         <v>241</v>
       </c>
@@ -4823,9 +4777,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="6" t="s">
         <v>242</v>
       </c>
@@ -4843,9 +4797,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
         <v>289</v>
       </c>
@@ -4863,9 +4817,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="6" t="s">
         <v>244</v>
       </c>
@@ -4883,9 +4837,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="6" t="s">
         <v>245</v>
       </c>
@@ -4903,9 +4857,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="6" t="s">
         <v>238</v>
       </c>
@@ -4923,9 +4877,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="6" t="s">
         <v>222</v>
       </c>
@@ -4941,9 +4895,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="28" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="30" t="s">
         <v>223</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -4961,9 +4915,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="28"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="6" t="s">
         <v>251</v>
       </c>
@@ -4979,9 +4933,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
-      <c r="B36" s="28"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="11" t="s">
         <v>252</v>
       </c>
@@ -4999,9 +4953,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
-      <c r="B37" s="28"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="6" t="s">
         <v>224</v>
       </c>
@@ -5019,8 +4973,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="32"/>
       <c r="B38" s="24" t="s">
         <v>389</v>
       </c>
@@ -5041,8 +4995,8 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="32"/>
       <c r="B39" s="5" t="s">
         <v>318</v>
       </c>
@@ -5063,11 +5017,11 @@
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="29">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="32">
         <v>16</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="31" t="s">
         <v>319</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -5087,9 +5041,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="28"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="6" t="s">
         <v>30</v>
       </c>
@@ -5107,9 +5061,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="28"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="6" t="s">
         <v>300</v>
       </c>
@@ -5127,11 +5081,11 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="29">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="32">
         <v>17</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="31" t="s">
         <v>232</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -5145,9 +5099,9 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="16" t="s">
         <v>38</v>
       </c>
@@ -5159,9 +5113,9 @@
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="16" t="s">
         <v>27</v>
       </c>
@@ -5173,9 +5127,9 @@
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="32"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="16" t="s">
         <v>31</v>
       </c>
@@ -5187,9 +5141,9 @@
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
-      <c r="B47" s="30"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="32"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="17" t="s">
         <v>254</v>
       </c>
@@ -5201,9 +5155,9 @@
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="32"/>
+      <c r="B48" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -5223,9 +5177,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="32"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="17" t="s">
         <v>255</v>
       </c>
@@ -5237,9 +5191,9 @@
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="32"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="17" t="s">
         <v>256</v>
       </c>
@@ -5251,9 +5205,9 @@
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="32"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="17" t="s">
         <v>38</v>
       </c>
@@ -5265,9 +5219,9 @@
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="32"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="17" t="s">
         <v>27</v>
       </c>
@@ -5279,9 +5233,9 @@
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="32"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="17" t="s">
         <v>288</v>
       </c>
@@ -5293,9 +5247,9 @@
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="29"/>
-      <c r="B54" s="30"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="32"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="17" t="s">
         <v>52</v>
       </c>
@@ -5307,8 +5261,8 @@
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
     </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
+    <row r="55" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="32"/>
       <c r="B55" s="7" t="s">
         <v>249</v>
       </c>
@@ -5323,7 +5277,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>401</v>
       </c>
@@ -5331,7 +5285,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>402</v>
       </c>
@@ -5365,7 +5319,7 @@
       <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
@@ -5375,7 +5329,7 @@
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>13</v>
       </c>
@@ -5395,7 +5349,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -5415,7 +5369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5435,7 +5389,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -5452,7 +5406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5469,7 +5423,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -5486,7 +5440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -5500,7 +5454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -5514,7 +5468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5528,7 +5482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5539,7 +5493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5550,7 +5504,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -5561,7 +5515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -5572,7 +5526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -5583,7 +5537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -5594,7 +5548,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -5605,7 +5559,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -5616,7 +5570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -5627,7 +5581,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -5635,7 +5589,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -5643,7 +5597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -5651,7 +5605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -5659,627 +5613,627 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>69</v>
       </c>
@@ -6302,7 +6256,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="4" width="83.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.5" bestFit="1" customWidth="1"/>
@@ -6310,7 +6264,7 @@
     <col min="7" max="7" width="94.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>13</v>
       </c>
@@ -6330,7 +6284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -6350,7 +6304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>187</v>
       </c>
@@ -6364,7 +6318,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>186</v>
       </c>
@@ -6378,7 +6332,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -6389,7 +6343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>192</v>
       </c>
@@ -6400,7 +6354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>194</v>
       </c>
@@ -6411,7 +6365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>193</v>
       </c>
@@ -6422,7 +6376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>196</v>
       </c>
@@ -6433,57 +6387,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>204</v>
       </c>
@@ -6503,7 +6457,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="23"/>
     <col min="2" max="2" width="15.5" style="23" bestFit="1" customWidth="1"/>
@@ -6514,7 +6468,7 @@
     <col min="8" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>373</v>
       </c>
@@ -6522,7 +6476,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>374</v>
       </c>
@@ -6533,7 +6487,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>377</v>
       </c>
@@ -6558,12 +6512,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>357</v>
       </c>
@@ -6571,7 +6525,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>357</v>
       </c>
@@ -6579,7 +6533,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>357</v>
       </c>
@@ -6587,7 +6541,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>357</v>
       </c>
@@ -6595,7 +6549,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -6603,7 +6557,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>357</v>
       </c>
@@ -6611,7 +6565,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>357</v>
       </c>
@@ -6619,7 +6573,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>357</v>
       </c>
@@ -6627,7 +6581,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -6635,7 +6589,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>357</v>
       </c>
@@ -6643,7 +6597,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>357</v>
       </c>
@@ -6651,7 +6605,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>357</v>
       </c>
@@ -6659,7 +6613,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>357</v>
       </c>
@@ -6667,7 +6621,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>357</v>
       </c>
@@ -6675,7 +6629,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>357</v>
       </c>
@@ -6683,7 +6637,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -6691,7 +6645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>357</v>
       </c>
@@ -6699,7 +6653,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>357</v>
       </c>
@@ -6707,7 +6661,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>357</v>
       </c>
@@ -6715,7 +6669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>357</v>
       </c>
@@ -6723,7 +6677,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>357</v>
       </c>
@@ -6731,7 +6685,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>357</v>
       </c>
@@ -6739,7 +6693,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>357</v>
       </c>
@@ -6747,7 +6701,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>357</v>
       </c>

--- a/docs/design/接入层规划.xlsx
+++ b/docs/design/接入层规划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="应用与appId" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">工作表1!$B$1:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="439">
   <si>
     <t>公司Id</t>
     <rPh sb="0" eb="1">
@@ -1612,7 +1612,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1632,6 +1631,96 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/price</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+暂时未定</t>
+    </r>
+    <rPh sb="43" eb="44">
+      <t>zan'shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>wei'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划接入点</t>
+    <rPh sb="0" eb="1">
+      <t>gui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'ru'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1640,11 +1729,20 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-/price</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn 
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1654,10 +1752,349 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/uploadlog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkfipphckl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilehelper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kkls3bhmtjqosocdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kkls3bhmtichjhhm8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">log.moretv.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">log.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">log2.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>log3.tvmore.com.cn</t>
+  </si>
+  <si>
+    <t>vrlog.aginomoto.com</t>
+  </si>
+  <si>
+    <t>crawlerlog.aginomoto.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logupload.aginomoto.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logupload2.aginomoto.com </t>
+  </si>
+  <si>
+    <t>logupload3.aginomoto.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog2.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusalog3.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>testlog.tvmore.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stun.p2p.tvmore.com.cn </t>
+  </si>
+  <si>
+    <t>stun.eagleapp.cn</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkfipphckl</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>domain:</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kkls3bhmtichjhhm8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kkls3bhmtjqosocdj</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnken8tuboa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.moretv.com.cn *.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1666,7 +2103,17 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-crawlerlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*.moretv.com.cn *.tvmore.com.cn
 </t>
     </r>
     <r>
@@ -1678,10 +2125,11 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1690,24 +2138,18 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-暂时未定</t>
-    </r>
-    <rPh sb="43" eb="44">
-      <t>zan'shi</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>wei'ding</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划接入点</t>
-    <rPh sb="0" eb="1">
-      <t>gui'h</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'ru'd</t>
-    </rPh>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/log/boikgpokn78sb95kjtihcg268dc5mlsr</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1720,7 +2162,85 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vrlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/log/boikgpokn78sb95kbqei6cc98dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95ktmsc1bnken8tuboa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*.aginomoto.com *.galaxytv.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location:</t>
     </r>
     <r>
       <rPr>
@@ -1741,13 +2261,13 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn 
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
+      <t>/log/boikgpokn78sb95kjhfrendo8dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1757,18 +2277,11 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1777,76 +2290,20 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-/uploadlog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnkfipphckl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobilehelper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kkls3bhmtjqosocdj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kkls3bhmtichjhhm8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">log.moretv.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">log.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">log2.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t>log3.tvmore.com.cn</t>
-  </si>
-  <si>
-    <t>vrlog.aginomoto.com</t>
-  </si>
-  <si>
-    <t>crawlerlog.aginomoto.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logupload.aginomoto.com  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">logupload2.aginomoto.com </t>
-  </si>
-  <si>
-    <t>logupload3.aginomoto.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medusalog.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">medusalog2.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">medusalog3.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t>testlog.tvmore.com.cn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stun.p2p.tvmore.com.cn </t>
-  </si>
-  <si>
-    <t>stun.eagleapp.cn</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1856,10 +2313,11 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1868,9 +2326,21 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
 </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/uploadplaylog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1880,10 +2350,60 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">location: </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/mtvkidslog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>domain：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1892,11 +2412,20 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkfipphckl</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
+log2.tvmore.com.cn log3.tvmore.com.cn
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1906,10 +2435,11 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">location: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1918,9 +2448,21 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-crawlerlog.aginomoto.com
 </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/mobilehelperlog  /mobilelog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1930,10 +2472,96 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+vrlog.aginomoto.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>location:</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/vrapplog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wha1ey#666@e3!</t>
+  </si>
+  <si>
+    <t>whaley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whaleyTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/applog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/log/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whaley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eagle</t>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹰</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1941,25 +2569,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-/log/boikgpokn78sb95kkls3bhmtichjhhm8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+wlslog.aginomoto.com
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1967,10 +2593,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-crawlerlog.aginomoto.com
-</t>
-    </r>
+/log/boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1980,7 +2618,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>location:</t>
+      <t>domain：</t>
     </r>
     <r>
       <rPr>
@@ -1988,677 +2626,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95kkls3bhmtjqosocdj</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnken8tuboa</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">*.moretv.com.cn *.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/log/boikgpokn78sb95kjtihcg268dc5mlsr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-vrlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95kbqei6cc98dc5mlsr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnkbe9pbhgu</t>
-  </si>
-  <si>
-    <t>boikgpokn78sb95ktmsc1bnken8tuboa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*.aginomoto.com *.galaxytv.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/log/boikgpokn78sb95kjhfrendo8dc5mlsr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/uploadplaylog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/mtvkidslog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">log.moretv.com.cn log.tvmore.com.cn
-log2.tvmore.com.cn log3.tvmore.com.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">location: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/mobilehelperlog  /mobilelog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-vrlog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/vrapplog</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wha1ey#666@e3!</t>
-  </si>
-  <si>
-    <t>whaley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whaleyTV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/applog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/log/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whaley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eagle</t>
-  </si>
-  <si>
-    <t>main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鹰</t>
-    <rPh sb="0" eb="1">
-      <t>xiao</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ying</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-wlslog.aginomoto.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>location:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/log/boikgpokn78sb95k7id7n8eb8dc5mlsr</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>domain：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2684,7 +2651,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2710,7 +2676,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2750,7 +2715,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/crashlog /applog /sysapplog /appstorelog
@@ -2825,7 +2789,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2849,7 +2812,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2898,66 +2860,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微鲸手机助手</t>
-    <rPh sb="0" eb="1">
-      <t>we'j</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhu'shou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>whaleytv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mobilehelper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boikgpokn78sb95kjhfrendojtihcg26</t>
-  </si>
-  <si>
-    <t>webportal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端web系统提供的各类后端服务入口页应用</t>
-    <rPh sb="0" eb="1">
-      <t>qian'duan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xi't</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ti'gong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>d</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ge'lei</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>hou'duan</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>fu'w</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ru'k</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ying'y</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>boikgpokn78sb95kjhfrendoj8ilnoi7
@@ -2970,10 +2877,6 @@
   </si>
   <si>
     <t>accountsys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boikgpokn78sb95kjhfrendosesh6bmu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3084,10 +2987,28 @@
     <t>系统保留appId,做一些特殊用途,比如未提交到appId下的需要记录的日志</t>
   </si>
   <si>
-    <t>boikgpokn78sb950000000000000000</t>
-  </si>
-  <si>
-    <t>log-raw-boikgpokn78sb95000000000</t>
+    <t>whaleytv</t>
+  </si>
+  <si>
+    <t>mobilehelper</t>
+  </si>
+  <si>
+    <t>微鲸手机助手</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95k000000000000000</t>
+  </si>
+  <si>
+    <t>log-raw-boikgpokn78sb95k00000000</t>
+  </si>
+  <si>
+    <t>boikgpokn78sb95kjhfrendosesh6bmu</t>
+  </si>
+  <si>
+    <t>webportal</t>
+  </si>
+  <si>
+    <t>前端web系统提供的各类后端服务入口页应用</t>
   </si>
 </sst>
 </file>
@@ -3100,7 +3021,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3628,8 +3548,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3668,42 +3588,42 @@
         <v>336</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I2" s="28">
         <v>6</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="100" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>4</v>
@@ -3724,13 +3644,13 @@
         <v>396</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I3" s="28">
         <v>12</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.2">
@@ -3756,13 +3676,13 @@
         <v>361</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I4" s="28">
         <v>12</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.2">
@@ -3788,13 +3708,13 @@
         <v>362</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I5" s="28">
         <v>12</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.2">
@@ -3820,46 +3740,46 @@
         <v>358</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I6" s="29">
         <v>12</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="19" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I7" s="27">
         <v>12</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>4</v>
@@ -3880,18 +3800,18 @@
         <v>363</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="I8" s="29">
         <v>6</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>4</v>
@@ -3912,18 +3832,18 @@
         <v>367</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I9" s="29">
         <v>12</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>4</v>
@@ -3944,13 +3864,13 @@
         <v>364</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I10" s="29">
         <v>6</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -3976,13 +3896,13 @@
         <v>360</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I11" s="29">
         <v>6</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -4008,18 +3928,18 @@
         <v>359</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I12" s="29">
         <v>6</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>379</v>
@@ -4038,13 +3958,13 @@
         <v>383</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I13" s="29">
         <v>6</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4066,13 +3986,13 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="11" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I14" s="27">
         <v>12</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4094,18 +4014,18 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="11" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I15" s="27">
         <v>12</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>4</v>
@@ -4122,18 +4042,18 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="11" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I16" s="27">
         <v>12</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>373</v>
@@ -4150,69 +4070,69 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I17" s="27">
         <v>6</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="11" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I18" s="27">
         <v>12</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="11" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I19" s="27">
         <v>12</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
